--- a/abel_results.xlsx
+++ b/abel_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Radius</t>
+          <t>Radius_1</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,20 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Radius_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Line_2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Radius_3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Line_3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Radius_4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Line_4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Radius_5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Line_5</t>
         </is>
@@ -469,288 +489,320 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2945.309397721254</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43016.67860263007</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80619.23175511241</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13282.8968114429</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68827.17198142297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>0.2945</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2599.130121268797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3875</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44202.90254023967</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="F3" t="n">
+        <v>79174.71623100508</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12984.24308044068</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.403</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J3" t="n">
+        <v>64725.7781004174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.6045</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2174.751798759332</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37972.83121193384</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7285</v>
+      </c>
+      <c r="F4" t="n">
+        <v>67759.41753279197</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11781.48835229218</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.806</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J4" t="n">
+        <v>54357.4083652187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>0.9145</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1691.05816107243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.1625</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28282.17480083001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.1005</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50548.14625228463</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0385</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9486.773812939629</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.209</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J5" t="n">
+        <v>40797.99742546564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>1.2245</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1212.318035772963</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18419.21592317931</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34998.42647497744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.3795</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7259.763690077986</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.612</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>-455384739.9177291</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J6" t="n">
+        <v>27717.84833348723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>1.5345</v>
+      </c>
+      <c r="B7" t="n">
+        <v>799.5104997734074</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.9375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10518.22607351719</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21152.46379954636</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4921.50903507092</v>
+      </c>
+      <c r="I7" t="n">
         <v>2.0305</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J7" t="n">
+        <v>16130.72329829179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1.8445</v>
+      </c>
+      <c r="B8" t="n">
+        <v>484.9012618380088</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.325</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5274.821306154793</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.201</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11192.83152222265</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3192.977915421682</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.4335</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J8" t="n">
+        <v>8558.429282197634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>2.1545</v>
+      </c>
+      <c r="B9" t="n">
+        <v>270.9203492734052</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.7125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2326.937729891402</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5575</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5561.122892886171</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.4335</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1836.086869805928</v>
+      </c>
+      <c r="I9" t="n">
         <v>2.8365</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J9" t="n">
+        <v>4084.045921220727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>2.4645</v>
+      </c>
+      <c r="B10" t="n">
+        <v>138.86099986545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>912.4629786844404</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.9295</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2402.045313582924</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.7745</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1010.669422610251</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.2395</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1761.52269342939</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>2.7745</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81.74021036489538</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="D11" t="n">
+        <v>353.6864953561275</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.3015</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1096.295750788272</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="H11" t="n">
+        <v>627.0273462560226</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.658</v>
       </c>
-      <c r="B11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0</v>
+      <c r="J11" t="n">
+        <v>776.1865927202358</v>
       </c>
     </row>
   </sheetData>
